--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -1,41 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agdimenna\Desktop\FEDERICO\GitHub\SE_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6430"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E28">
+    <comment ref="E28" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">- Aggiunto la vista materializzata al database per le lezioni
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>- Aggiunto la vista materializzata al database per le lezioni
 - Modificato la relazione tra studenti e insegnamenti
 -Legato notifiche  ad insegnamenti</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E29">
+    <comment ref="E29" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Creazione Vista materializzata</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Creazione Vista materializzata</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E31">
+    <comment ref="E31" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Aggiornamento Deliverable sulle modifiche effettuate</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Aggiornamento Deliverable sulle modifiche effettuate</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E33">
+    <comment ref="E33" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Modificato i sequence Diagram 3 e 5</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Modificato i sequence Diagram 3 e 5</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -43,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
   <si>
     <t>Personal Journal</t>
   </si>
@@ -359,60 +395,122 @@
   </si>
   <si>
     <t>Modifica Class Diagram</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La repository Git è stata aggiornata per la consegna del 2 deliverable. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>In verde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>le aggiunte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, in rosso le rimozioni.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF333399"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF333399"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -420,7 +518,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -436,82 +534,130 @@
     </fill>
   </fills>
   <borders count="19">
-    <border/>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -520,17 +666,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -545,8 +696,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -556,6 +709,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -570,8 +724,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -581,161 +737,115 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="51">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -925,29 +1035,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.14"/>
-    <col customWidth="1" min="2" max="2" width="4.86"/>
-    <col customWidth="1" min="3" max="3" width="11.29"/>
-    <col customWidth="1" min="4" max="4" width="18.29"/>
-    <col customWidth="1" min="5" max="5" width="107.29"/>
-    <col customWidth="1" min="6" max="6" width="22.71"/>
-    <col customWidth="1" min="7" max="7" width="18.43"/>
+    <col min="1" max="1" width="3.08984375" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="107.26953125" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,969 +1075,977 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="50" t="s">
+        <v>105</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="16" t="s">
+    <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="20">
-        <v>24.0</v>
-      </c>
-      <c r="B9" s="21">
-        <v>11.0</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="21" t="s">
+    <row r="9" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="23">
-        <v>25.0</v>
-      </c>
-      <c r="B10" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="C10" s="25" t="s">
+    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>25</v>
+      </c>
+      <c r="B10" s="14">
+        <v>11</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="21" t="s">
+    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="21" t="s">
+    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="32" t="s">
+    <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="34" t="s">
+    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="36">
-        <v>26.0</v>
-      </c>
-      <c r="B15" s="32">
-        <v>11.0</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="38" t="s">
+    <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>26</v>
+      </c>
+      <c r="B15" s="22">
+        <v>11</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="22" t="s">
+    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="34">
-        <v>28.0</v>
-      </c>
-      <c r="B17" s="22">
-        <v>11.0</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="21" t="s">
+    <row r="17" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>28</v>
+      </c>
+      <c r="B17" s="12">
+        <v>11</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="20">
-        <v>30.0</v>
-      </c>
-      <c r="B18" s="21">
-        <v>11.0</v>
-      </c>
-      <c r="C18" s="22" t="s">
+    <row r="18" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>30</v>
+      </c>
+      <c r="B18" s="11">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="32">
-        <v>12.0</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="38" t="s">
+    <row r="19" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>1</v>
+      </c>
+      <c r="B19" s="22">
+        <v>12</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="B20" s="40">
-        <v>12.0</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="21" t="s">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>2</v>
+      </c>
+      <c r="B20" s="30">
+        <v>12</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="41"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="22" t="s">
+    <row r="21" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="42" t="s">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="B23" s="32">
-        <v>12.0</v>
-      </c>
-      <c r="C23" s="37" t="s">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>3</v>
+      </c>
+      <c r="B23" s="22">
+        <v>12</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="21" t="s">
+    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="36">
-        <v>4.0</v>
-      </c>
-      <c r="B25" s="32">
-        <v>12.0</v>
-      </c>
-      <c r="C25" s="37" t="s">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>4</v>
+      </c>
+      <c r="B25" s="22">
+        <v>12</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="39">
-        <v>5.0</v>
-      </c>
-      <c r="B26" s="40">
-        <v>12.0</v>
-      </c>
-      <c r="C26" s="22" t="s">
+    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>5</v>
+      </c>
+      <c r="B26" s="30">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="35" t="s">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="45">
-        <v>14.0</v>
-      </c>
-      <c r="B28" s="35">
-        <v>12.0</v>
-      </c>
-      <c r="C28" s="35" t="s">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35">
+        <v>14</v>
+      </c>
+      <c r="B28" s="25">
+        <v>12</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="45">
-        <v>14.0</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="42" t="s">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="35">
+        <v>14</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="45">
-        <v>14.0</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="35" t="s">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="35">
+        <v>14</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="45">
-        <v>14.0</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="35" t="s">
+    <row r="31" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="35">
+        <v>14</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="45">
-        <v>14.0</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="35" t="s">
+    <row r="32" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="35">
+        <v>14</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="45">
-        <v>14.0</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="35" t="s">
+    <row r="33" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="35">
+        <v>14</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="45">
-        <v>15.0</v>
-      </c>
-      <c r="B34" s="35">
-        <v>12.0</v>
-      </c>
-      <c r="C34" s="35" t="s">
+    <row r="34" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="35">
+        <v>15</v>
+      </c>
+      <c r="B34" s="25">
+        <v>12</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="45">
-        <v>15.0</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="35" t="s">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="45">
-        <v>16.0</v>
-      </c>
-      <c r="B36" s="35">
-        <v>12.0</v>
-      </c>
-      <c r="C36" s="35" t="s">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="35">
+        <v>16</v>
+      </c>
+      <c r="B36" s="25">
+        <v>12</v>
+      </c>
+      <c r="C36" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="45">
-        <v>17.0</v>
-      </c>
-      <c r="B37" s="35">
-        <v>12.0</v>
-      </c>
-      <c r="C37" s="35" t="s">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="35">
+        <v>17</v>
+      </c>
+      <c r="B37" s="25">
+        <v>12</v>
+      </c>
+      <c r="C37" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="45">
-        <v>17.0</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="42" t="s">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="35">
+        <v>17</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="45">
-        <v>17.0</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="35" t="s">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="35">
+        <v>17</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="G39" s="36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="45">
-        <v>18.0</v>
-      </c>
-      <c r="B40" s="35">
-        <v>12.0</v>
-      </c>
-      <c r="C40" s="35" t="s">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="35">
+        <v>18</v>
+      </c>
+      <c r="B40" s="25">
+        <v>12</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="G40" s="36" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="45">
-        <v>18.0</v>
-      </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="35" t="s">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="35">
+        <v>18</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="G41" s="36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="45">
-        <v>19.0</v>
-      </c>
-      <c r="B42" s="46">
-        <v>12.0</v>
-      </c>
-      <c r="C42" s="46" t="s">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="35">
+        <v>19</v>
+      </c>
+      <c r="B42" s="36">
+        <v>12</v>
+      </c>
+      <c r="C42" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="E42" s="35" t="s">
+      <c r="D42" s="32">
+        <v>1</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="36" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="45">
-        <v>19.0</v>
-      </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="35" t="s">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="35">
+        <v>19</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="45">
-        <v>19.0</v>
-      </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="35" t="s">
+    <row r="44" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="35">
+        <v>19</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="E44" s="35" t="s">
+      <c r="D44" s="32">
+        <v>2</v>
+      </c>
+      <c r="E44" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G44" s="36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="45">
-        <v>20.0</v>
-      </c>
-      <c r="B45" s="46">
-        <v>12.0</v>
-      </c>
-      <c r="C45" s="35" t="s">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="35">
+        <v>20</v>
+      </c>
+      <c r="B45" s="36">
+        <v>12</v>
+      </c>
+      <c r="C45" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="E45" s="46" t="s">
+      <c r="D45" s="32">
+        <v>2</v>
+      </c>
+      <c r="E45" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="47">
-        <v>21.0</v>
-      </c>
-      <c r="B46" s="46">
-        <v>12.0</v>
-      </c>
-      <c r="C46" s="46" t="s">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="37">
+        <v>21</v>
+      </c>
+      <c r="B46" s="36">
+        <v>12</v>
+      </c>
+      <c r="C46" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="E46" s="46" t="s">
+      <c r="D46" s="38">
+        <v>2</v>
+      </c>
+      <c r="E46" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="47">
-        <v>21.0</v>
-      </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="46" t="s">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="37">
+        <v>21</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="E47" s="46" t="s">
+      <c r="D47" s="38">
+        <v>1</v>
+      </c>
+      <c r="E47" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="47">
-        <v>22.0</v>
-      </c>
-      <c r="B48" s="46">
-        <v>12.0</v>
-      </c>
-      <c r="C48" s="46" t="s">
+    <row r="48" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="37">
+        <v>22</v>
+      </c>
+      <c r="B48" s="36">
+        <v>12</v>
+      </c>
+      <c r="C48" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="E48" s="46" t="s">
+      <c r="D48" s="38">
+        <v>2</v>
+      </c>
+      <c r="E48" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="36" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="43"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="43"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
+    <row r="49" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A50" s="33"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+    </row>
+    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1932,7 +2055,8 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A8:B8"/>
   </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>